--- a/02_programme_task/xlsx_out/54.1 Timothy.xlsx
+++ b/02_programme_task/xlsx_out/54.1 Timothy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1063 +453,1387 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul, an apostle of Christ Jesus by command of God our Savior and of Christ Jesus our hope, 2</t>
+          <t>The First Letter of Paul to Timothy Timothy Greeting</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1 Timothy 1:2</t>
+          <t>1 Timothy 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>To Timothy, my true child in the faith: Grace, mercy, and peace from God the Father and Christ Jesus our Lord. Warning Against False Teachers 3</t>
+          <t>Paul, a an apostle of Christ Jesus b by command of c God our Savior and of Christ Jesus d our hope,</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1 Timothy 1:4</t>
+          <t>1 Timothy 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nor to devote themselves to myths and endless genealogies, which promote speculations rather than the stewardshi p from God that is by faith. 5</t>
+          <t>To Timothy, e my true child in the faith: f Grace, mercy, and peace from God the Father and Christ Jesus our Lord. Warning Against False Teachers</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1 Timothy 1:5</t>
+          <t>1 Timothy 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The aim of our charge is love that issues from a pure heart and a good conscience and a sincere faith. 6</t>
+          <t>g As I urged you when I was going to Macedonia, remain at Ephesus so that you may charge certain persons not h to teach any different doctrine,</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 Timothy 1:6</t>
+          <t>1 Timothy 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Certain persons, by swerving from these, have wandered away into vain discussion, 7</t>
+          <t>nor i to devote themselves to myths and endless j genealogies, which promote k speculations rather than the stewardshi p from God that is by faith.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1 Timothy 1:7</t>
+          <t>1 Timothy 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>desiring to be teachers of the law, without understanding either what they are saying or the things about which they make confident assertions. 8</t>
+          <t>The aim of our charge is love l that issues from a pure heart and m a good conscience and n a sincere faith.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1 Timothy 1:8</t>
+          <t>1 Timothy 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Now we know that the law is good, if one uses it lawfully, 9</t>
+          <t>Certain persons, by o swerving from these, have wandered away into p vain discussion,</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1 Timothy 1:9</t>
+          <t>1 Timothy 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>understanding this, that the law is not laid down for the just but for the lawless and disobedient, for the ungodly and sinners, for the unholy and profane, for those who strike their fathers and mothers, for murderers,</t>
+          <t>desiring to be teachers of the law, q without understanding either what they are saying or the things about which they make confident assertions.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1 Timothy 1:10</t>
+          <t>1 Timothy 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>the sexually immoral, men who practice homosexuality, enslavers, liars, perjurers, and whatever else is contrary to soun16 d doctrine,</t>
+          <t>Now we know that r the law is good, if one uses it lawfully,</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1 Timothy 1:11</t>
+          <t>1 Timothy 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>in accordance with the gospel of the glory of the blessed God with which I have been entrusted. Christ Jesus Came to Save Sinners</t>
+          <t>understanding this, that the s law is not laid down for the just but for the lawless and disobedient, for the ungodly and sinners, for the unholy and profane, for those who strike their fathers and mothers, for murderers,</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1 Timothy 1:12</t>
+          <t>1 Timothy 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>I thank him who has given me strength, Christ Jesus our Lord, because he judged me faithful, appointing me to his service,</t>
+          <t>the sexually immoral, men who practice homosexuality, enslavers, liars, perjurers, and whatever else is contrary to t soun d doctrine,</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1 Timothy 1:13</t>
+          <t>1 Timothy 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>though formerly I was a blasphemer, persecutor, and insolent opponent. But I received mercy because I had acted ignorantly in unbelief,</t>
+          <t>in accordance with u the gospel of the glory of v the blessed God w with which I have been entrusted. Christ Jesus Came to Save Sinners</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 Timothy 1:14</t>
+          <t>1 Timothy 1:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>and the grace of our Lord overflowed for me with the faith and love that are in Christ Jesus.</t>
+          <t>I thank him x who has given me strength, Christ Jesus our Lord, because he judged me faithful, y appointing me to his service,</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1 Timothy 1:15</t>
+          <t>1 Timothy 1:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>The saying is trustworthy and deserving of full acceptance, that Christ Jesus came into the world to save sinners, of whom I am the foremost.</t>
+          <t>though formerly I was a blasphemer, z persecutor, and insolent opponent. But a I received mercy b because I had acted ignorantly in unbelief,</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1 Timothy 1:16</t>
+          <t>1 Timothy 1:14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>But I received mercy for this reason, that in me, as the foremost, Jesus Christ might display his perfect patience as an example to those who were to believe in him for eternal life.</t>
+          <t>and c the grace of our Lord overflowed for me with the d faith and love that are in Christ Jesus.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1 Timothy 1:17</t>
+          <t>1 Timothy 1:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>To the King of the ages, immortal, invisible, the only God, be honor and glory forever and ever. Amen.</t>
+          <t>The saying is e trustworthy and deserving of full acceptance, that Christ Jesus f came into the world to save sinners, g of whom I am the foremost.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1 Timothy 1:18</t>
+          <t>1 Timothy 1:16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>This charge I ntrust to you, Timothy, my child, in accordance with the prophecies previously made about you, that by them you may wage the good warfare,</t>
+          <t>But I received mercy for this reason, that in me, as the foremost, Jesus Christ might display his perfect patience as an example to those who were to believe in him for eternal life.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1 Timothy 1:20</t>
+          <t>1 Timothy 1:17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>among whom are Hymenaeus and Alexander, whom I have handed over to Satan that they may learn not to blaspheme. Pray for All People 2</t>
+          <t>To h the King of the ages, i immortal, j invisible, k the only God, l be honor and glory forever and ever. Amen.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1 Timothy 2:1</t>
+          <t>1 Timothy 1:18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>First of all, then, I urge that supplications, prayers, intercessions, and thanksgivings be made for all people, 2</t>
+          <t>This charge m I entrust to you, Timothy, my child, in accordance with n the prophecies previously made about you, that by them you may o wage the good warfare,</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1 Timothy 2:3</t>
+          <t>1 Timothy 1:19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>This is good, and it is pleasing in the sight of God our Savior, 4</t>
+          <t>p holding faith and a good conscience. By rejecting this, some have q made shipwreck of their faith,</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1 Timothy 2:4</t>
+          <t>1 Timothy 1:20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>who desires all people to be saved and to come to the knowledge of the truth. 5</t>
+          <t>among whom are r Hymenaeus and s Alexander, whom I t have handed over to Satan that they may learn not to u blaspheme. Pray for All People</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1 Timothy 2:5</t>
+          <t>1 Timothy 2:1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>For there is one God, and there is one mediator between God and men, the ma16 n Christ Jesus, 6</t>
+          <t>First of all, then, I urge that supplications, prayers, intercessions, and thanksgivings be made for all people,</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1 Timothy 2:8</t>
+          <t>1 Timothy 2:2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>I sire then that in every place the men should pray, lifting holy hands without anger or quarreling; 9</t>
+          <t>v for kings and all who are in high positions, that we may lead a peaceful and quiet life, godly and w dignified in every way.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1 Timothy 2:9</t>
+          <t>1 Timothy 2:3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>likewise also that women should adorn themselves in respectable apparel, with modesty and self- control, not with braided hair and gold or pearls or costly attire,</t>
+          <t>This is good, and x it is pleasing in the sight of y God our Savior,</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1 Timothy 2:11</t>
+          <t>1 Timothy 2:4</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Let a woman learn quietly with all submissiveness.</t>
+          <t>who desires z all people to be saved and a to come to b the knowledge of the truth.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1 Timothy 2:14</t>
+          <t>1 Timothy 2:5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>and Adam was not deceived, but the woman was deceived and became a transgressor.</t>
+          <t>For c there is one God, and there is one mediator between God and men, the ma n Christ Jesus,</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1 Timothy 2:15</t>
+          <t>1 Timothy 2:6</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Yet she will be saved through childbearin16 g if they continue in faith and love and holiness, with self- control. Qualifications for Overseers 3</t>
+          <t>d who gave himself as a ransom for all, which is e the testimony given f at the proper time.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1 Timothy 3:1</t>
+          <t>1 Timothy 2:7</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The saying is trustworthy: If anyone aspires to the office of overseer, he desires a noble task. 2</t>
+          <t>g For this I was appointed a preacher and an apostle, i a teacher of the Gentiles in faith and truth.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1 Timothy 3:2</t>
+          <t>1 Timothy 2:8</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Therefore an oversee16 r must be above reproach, the husband of one wife, sober- minded, self- controlled, respectable, hospitable, able to teach, 3</t>
+          <t>I desire then that j in every place the men should pray, k lifting l holy hands without anger or quarreling;</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1 Timothy 3:3</t>
+          <t>1 Timothy 2:9</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>not a drunkard, not violent but gentle, not quarrelsome, not a lover of money. 4</t>
+          <t>likewise also m that women should adorn themselves in respectable apparel, with modesty and self-control, not with braided hair and gold or pearls or costly attire,</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1 Timothy 3:4</t>
+          <t>1 Timothy 2:10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>He must manage his own household well, with all dignity keeping his children submissive, 5</t>
+          <t>n but with what is proper for women who profess godlines s with good works.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1 Timothy 3:5</t>
+          <t>1 Timothy 2:11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>for if someone does not know how to manage his own household, how will he care for God's church 6</t>
+          <t>Let a woman learn quietly o with all submissiveness.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1 Timothy 3:6</t>
+          <t>1 Timothy 2:12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>He must not be a recent convert, or he may become puffed up with conceit and fall into the condemnation of the devil. 7</t>
+          <t>p I do not permit a woman to teach or to exercise authority over a man; rather, she is to remain quiet.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1 Timothy 3:7</t>
+          <t>1 Timothy 2:13</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Moreover, he must be well thought of by outsiders, so that he may not fall into disgrace, into a snare of the devil. Qualifications for Deacons 8</t>
+          <t>q For Adam was formed first, r then Eve;</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1 Timothy 3:9</t>
+          <t>1 Timothy 2:14</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>They must hold the mystery of the faith with a clear conscience.</t>
+          <t>and Adam was not deceived, but s the woman was deceived and became a transgressor.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1 Timothy 3:10</t>
+          <t>1 Timothy 2:15</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>And let them also be tested first; then let them serve as deacons if they prove themselves blameless.</t>
+          <t>Yet she will be saved through t childbearin g if they continue in u faith and love and holiness, with self-control. Qualifications for Overseers</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1 Timothy 3:12</t>
+          <t>1 Timothy 3:1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Let deacons each be the husband of one wife, managing their children and their own households well.</t>
+          <t>The saying is v trustworthy: If anyone aspires to w the office of overseer, he desires a noble task.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1 Timothy 3:13</t>
+          <t>1 Timothy 3:2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>For those who serve well as deacons gain a good standing for themselves and also great confidence in the faith that is in Christ Jesus. The Mystery of Godliness</t>
+          <t>Therefore x an oversee r must be above reproach, y the husband of one wife,</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1 Timothy 3:14</t>
+          <t>1 Timothy 3:3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>I hope to come to you soon, but I am writing these things to you so that,</t>
+          <t>z sober-minded, self-controlled, respectable, a hospitable, b able to teach,</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1 Timothy 3:15</t>
+          <t>1 Timothy 3:3</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>if I delay, you may know how one ought to behave in the household of God, which is the church of the living God, a pillar and buttress of the truth.</t>
+          <t>not a drunkard, not violent but c gentle, not quarrelsome, d not a lover of money.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1 Timothy 3:16</t>
+          <t>1 Timothy 3:4</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Great indeed, we confess, is the mystery of godliness: - H16 e was manifested in the flesh, - vindicate16 d by the Spirit, - seen by angels, - proclaimed among the nations, - believed on in the world, - taken up in glory. Some Will Depart from the Faith 4</t>
+          <t>He must manage his own household well, with all dignity e keeping his children submissive,</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1 Timothy 4:1</t>
+          <t>1 Timothy 3:5</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Now the Spirit expressly says that in later times some will depart from the faith by devoting themselves to deceitful spirits and teachings of demons, 2</t>
+          <t>for if someone does not know how to manage his own household, how will he care for w God s church?</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1 Timothy 4:2</t>
+          <t>1 Timothy 3:6</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>through the insincerity of liars whose consciences are seared, 3</t>
+          <t>He must not be a recent convert, or he may f become puffed up with conceit and fall into the condemnation of the devil.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1 Timothy 4:4</t>
+          <t>1 Timothy 3:7</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>For everything created by God is good, and nothing is to be rejected if it is received with thanksgiving, 5</t>
+          <t>Moreover, he must be well thought of by g outsiders, so that he may not fall into disgrace, into h a snare of the devil. Qualifications for Deacons</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1 Timothy 4:5</t>
+          <t>1 Timothy 3:8</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>for it is made holy by the word of God and prayer. A Good Servant of Christ Jesus 6</t>
+          <t>i Deacons likewise must be dignified, not double-tongued,</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1 Timothy 4:7</t>
+          <t>1 Timothy 3:9</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Have nothing to do with irreverent, silly myths. Rather train yourself for godliness; 8</t>
+          <t>j not addicted to much wine, k not greedy for dishonest gain.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1 Timothy 4:8</t>
+          <t>1 Timothy 3:9</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>for while bodily training is of some value, godliness is of value in every way, as it holds promise for the pres173 ent life and also for the life to come. 9</t>
+          <t>They must l hold the mystery of the faith with m a clear conscience.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1 Timothy 4:9</t>
+          <t>1 Timothy 3:10</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>The saying is trustworthy and deserving of full acceptance.</t>
+          <t>And n let them also be tested first; then let them serve as deacons if they prove themselves blameless.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1 Timothy 4:10</t>
+          <t>1 Timothy 3:11</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>For to this end we toil and strive, because we have our hope set on the living God, who is the Savior of all people, especially of those who believe.</t>
+          <t>o Their wives likewis e must be dignified, not slanderers, but sober-minded, p faithful in all things.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1 Timothy 4:11</t>
+          <t>1 Timothy 3:12</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Command and teach these things.</t>
+          <t>Let deacons each be q the husband of one wife, q managing their children and their own households well.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1 Timothy 4:13</t>
+          <t>1 Timothy 3:13</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Until I come, devote yourself to the public reading of Scripture, to exhortation, to teaching.</t>
+          <t>For r those who serve well as deacons gain a good standing for themselves and also great confidence in the faith that is in Christ Jesus. The Mystery of Godliness</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1 Timothy 4:15</t>
+          <t>1 Timothy 3:14</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Practice these things, immerse yourself in them, so that all may see your progress.</t>
+          <t>I hope to come to you soon, but I am writing these things to you so that,</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1 Timothy 5:2</t>
+          <t>1 Timothy 3:15</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>older women as mothers, younger women as sisters, in all purity. 3</t>
+          <t>if I delay, you may know how one ought to behave in the household of God, which is the church of the living God, a pillar and buttress of the truth.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1 Timothy 5:3</t>
+          <t>1 Timothy 3:16</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Honor widows who are truly widows. 4</t>
+          <t>Great indeed, we confess, is the mystery of godliness: s H e was manifested in the flesh, vindicate d by the Spirit, t seen by angels, u proclaimed among the nations, v believed on in the world, w taken up in glory. Some Will Depart from the Faith</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1 Timothy 5:4</t>
+          <t>1 Timothy 4:1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>But if a widow has children or grandchildren, let them first learn to show godliness to their own household and to make some return to their parents, for this is pleasing in the sight of God. 5</t>
+          <t>Now x the Spirit expressly says that y in later times some will depart from the faith by devoting themselves to z deceitful spirits and teachings of demons,</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1 Timothy 5:5</t>
+          <t>1 Timothy 4:2</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>She who is truly a widow, left all alone, has set her hope on God and continues in supplications and prayers night and day, 6</t>
+          <t>through the insincerity of a liars whose consciences are seared,</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1 Timothy 5:6</t>
+          <t>1 Timothy 4:3</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>but she who is self- indulgent is dead even while she lives. 7</t>
+          <t>b who forbid marriage and c require abstinence from foods d that God created e to be received with thanksgiving by those who believe and know the truth.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1 Timothy 5:8</t>
+          <t>1 Timothy 4:4</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>But if anyone does not provide for his relatives, and especially for members of his household, he has denied the faith and is worse than an unbeliever. 9</t>
+          <t>For f everything created by God is good, and g nothing is to be rejected if it is e received with thanksgiving,</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1 Timothy 5:9</t>
+          <t>1 Timothy 4:5</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Let a widow be enrolled if she is not less than sixty years of age, having been the wife of one husband,</t>
+          <t>for it is made holy h by the word of God and prayer. A Good Servant of Christ Jesus</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1 Timothy 5:10</t>
+          <t>1 Timothy 4:6</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>and having a reputation for good works: if she has brought up children, has shown hospitality, has washed the feet of the saints, has cared for the afflicted, and has devoted herself to every good work.</t>
+          <t>i If you put these things before the brothers, you will be a good servant of Christ Jesus, being trained in the words of the faith and of the good doctrine that you have j followed.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1 Timothy 5:11</t>
+          <t>1 Timothy 4:7</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>But refuse to enroll younger widows, for when their passions draw them away from Christ, they desire to marry</t>
+          <t>Have nothing to do with irreverent, k silly myths. Rather l train yourself for godliness;</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1 Timothy 5:12</t>
+          <t>1 Timothy 4:8</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>and so incur condemnation for having abandoned their former faith.</t>
+          <t>for while m bodily training is of some value, godliness n is of value in every way, as o it holds promise for the pres?ent life and also for the life to come.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1 Timothy 5:13</t>
+          <t>1 Timothy 4:9</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Besides that, they learn to be idlers, going about from house to house, and not only idlers, but also gossips and busybodies, saying what they should not.</t>
+          <t>The saying is p trustworthy and deserving of full acceptance.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1 Timothy 5:14</t>
+          <t>1 Timothy 4:10</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>So I would have younger widows marry, bear children, manage their households, and give the adversary no occasion for slander.</t>
+          <t>For to this end we toil and strive, because we have our hope set on the living God, q who is the Savior of all people, especially of those who believe.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1 Timothy 5:16</t>
+          <t>1 Timothy 4:11</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>If any believing woman has relatives who are widows, let her care for them. Let the church not be burdened, so that it may care for those who are truly widows.</t>
+          <t>Command and teach r these things.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1 Timothy 5:17</t>
+          <t>1 Timothy 4:12</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Let the elders who rule well be considered worthy of double honor, especially those who labor in preaching and teaching.</t>
+          <t>s Let no one despise you for your youth, but set the believers t an example in speech, in conduct, in love, in faith, in purity.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1 Timothy 5:18</t>
+          <t>1 Timothy 4:13</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>For the Scripture says, You shall not muzzle an ox when it treads out the grain, and, The laborer deserves his wages.</t>
+          <t>Until I come, devote yourself to the public reading of Scripture, to exhortation, to teaching.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1 Timothy 5:19</t>
+          <t>1 Timothy 4:14</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Do not admit a charge against an elder except on the evidence of two or three witnesses.</t>
+          <t>u Do not neglect the gift you have, which was given you v by prophecy when the council of elders w laid their hands on you.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1 Timothy 5:20</t>
+          <t>1 Timothy 4:15</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>As for those who persist in sin, rebuke them in the presence of all, so that the rest may stand in fear.</t>
+          <t>Practice these things, immerse yourself in them, so that x all may see your progress.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1 Timothy 5:21</t>
+          <t>1 Timothy 4:16</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>In the presence of God and of Christ Jesus and of the elect angels I harge you to keep these rules without prejudging, doing nothing from partiality.</t>
+          <t>y Keep a close watch on yourself and on the teaching. Persist in this, for by so doing you will save z both yourself and a your hearers. Instructions for the Church</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1 Timothy 5:23</t>
+          <t>1 Timothy 4:17</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>No long173 er drink only water, but use a little wine for the sake of your stomach and your frequent ailments.</t>
+          <t>b Do not rebuke an older man but encourage him as you would a father, c younger men as brothers,</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1 Timothy 5:24</t>
+          <t>1 Timothy 5:2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>The sins of some people are conspicuous, going before them to judgment, but the sins of others appear later.</t>
+          <t>older women as mothers, younger women as sisters, in all purity.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1 Timothy 5:25</t>
+          <t>1 Timothy 5:3</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>So also good works are conspicuous, and even those that are not cannot remain hidden. 6</t>
+          <t>Honor widows d who are truly widows.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1 Timothy 6:2</t>
+          <t>1 Timothy 5:4</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Those who have believing masters must not be disrespectful on the ground that they are brothers; rather they must serve all the better since those who benefit by their good service are believers and beloved. False Teachers and True Contentment Teach and urge these things. 3</t>
+          <t>But if a widow has children or grandchildren, let them first learn e to show godliness to their own household and to make some return to their parents, for f this is pleasing in the sight of God.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1 Timothy 6:3</t>
+          <t>1 Timothy 5:5</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>If anyone teaches a different doctrine and does not agree with the soun16 d words of our Lord Jesus Christ and the teaching that accords with godliness, 4</t>
+          <t>She g who is truly a widow, left all alone, has set her hope on God and h continues in supplications and prayers night and day,</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1 Timothy 6:5</t>
+          <t>1 Timothy 5:6</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>and constant friction among people who are depraved in mind and deprived of the truth, imagining that godliness is a means of gain. 6</t>
+          <t>but i she who is self-indulgent is j dead even while she lives.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1 Timothy 6:6</t>
+          <t>1 Timothy 5:7</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>But godliness with contentment is great gain, 7</t>
+          <t>k Command these things as well, so that they may be without reproach.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1 Timothy 6:7</t>
+          <t>1 Timothy 5:8</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>for we brought nothing into the world, an16 d 1 we cannot take anything out of the world. 8</t>
+          <t>But if anyone does not provide for his relatives, and especially for l members of his household, he has m denied the faith and is worse than an unbeliever.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1 Timothy 6:8</t>
+          <t>1 Timothy 5:9</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>But if we have food and clothing, with these we will be content. 9</t>
+          <t>Let a widow be enrolled if she is not less than sixty years of age, having been n the wife of one husband,</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1 Timothy 6:9</t>
+          <t>1 Timothy 5:10</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>But those who desire to be rich fall into temptation, into a snare, into many senseless and harmful desires that plunge people into ruin and destruction.</t>
+          <t>and having a reputation for good works: if she has brought up children, has n shown hospitality, o has washed the feet of the saints, has p cared for the afflicted, and has q devoted herself to every good work.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1 Timothy 6:10</t>
+          <t>1 Timothy 5:11</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>For the love of money is a root of all kinds of evils. It is through this craving that some have wandered away from the faith and pierced themselves with many pangs. Fight the Good Fight of Faith</t>
+          <t>But refuse to enroll younger widows, for when r their passions draw them away from Christ, they desire to marry</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1 Timothy 6:11</t>
+          <t>1 Timothy 5:12</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>But as for you, O man of God, flee these things. Pursue righteousness, godliness, faith, love, steadfastness, gentleness.</t>
+          <t>and so incur condemnation for having abandoned their former faith.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1 Timothy 6:14</t>
+          <t>1 Timothy 5:13</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>to keep the commandment unstained and free from reproach until the appearing of our Lord Jesus Christ,</t>
+          <t>Besides that, they learn to be idlers, going about from house to house, and not only idlers, but also s gossips and t busybodies, saying what they should not.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1 Timothy 6:15</t>
+          <t>1 Timothy 5:14</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>which he will display at the proper tim16 e he who is the blessed and only Sovereign, the King of kings and Lord of lords,</t>
+          <t>So I would have u younger widows marry, bear children, v manage their households, and w give the adversary no occasion for slander.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1 Timothy 6:17</t>
+          <t>1 Timothy 5:15</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>As for the rich in this pres173 ent age, charge them not to be haughty, nor to set their hopes on the uncertainty of riches, but on God, who richly provides us with everything to enjoy.</t>
+          <t>x For some have already strayed after Satan.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1 Timothy 6:18</t>
+          <t>1 Timothy 5:16</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>They are to do good, to be rich in good works, to be generous and ready to share,</t>
+          <t>If any believing woman has relatives who are widows, let her care for them. Let the church not be burdened, so that it may care for those y who are truly widows.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1 Timothy 6:19</t>
+          <t>1 Timothy 5:17</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>thus storing up treasure for themselves as a good foundation for the future, so that they may take hold of that which is truly life.</t>
+          <t>Let the elders z who rule well be considered worthy of a double honor, especially those who labor in preaching and teaching.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1 Timothy 6:20</t>
+          <t>1 Timothy 5:18</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>O Timothy, guard the deposit entrusted to you. Avoid the irreverent babble and contradictions of what is falsely called knowledge,</t>
+          <t>For the Scripture says, b You shall not muzzle an ox when it treads out the grain, and, c The laborer deserves his wages.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>1 Timothy 5:19</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Do not admit a charge against an elder except d on the evidence of two or three witnesses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1 Timothy 5:20</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>As for those who persist in sin, e rebuke them in the presence of all, f so that the rest may stand in fear.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1 Timothy 5:21</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>In the presence of God and of Christ Jesus and of the elect angels g I charge you to keep these rules without prejudging, h doing nothing from partiality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1 Timothy 5:22</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>i Do not be hasty in the j laying on of hands, nor k take part in the sins of others; keep yourself pure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1 Timothy 5:23</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>No long?er drink only water, but l use a little wine m for the sake of your stomach and your frequent ailments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1 Timothy 5:24</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>The sins of some people are conspicuous, going before them to judgment, but the sins of others appear later.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1 Timothy 5:25</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>So also good works are conspicuous, and n even those that are not cannot remain hidden.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1 Timothy 5:26</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>o Let all who are under a yoke as bondservant s regard their own masters as worthy of all honor, p so that the name of God and the teaching may not be reviled.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:2</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Those who have believing masters must not be disrespectful on the ground that they are q brothers; rather they must serve all the better since those who benefit by their good service are believers and beloved. False Teachers and True Contentment r Teach and urge these things.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:3</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>If anyone s teaches a different doctrine and does not agree with t the soun d words of our Lord Jesus Christ and the teaching u that accords with godliness,</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:4</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>v he is puffed up with conceit and w understands nothing. He has an unhealthy craving for x controversy and for y quarrels about words, which produce envy, dissension, slander, evil suspicions,</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:5</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>and constant friction among people z who are depraved in mind and deprived of the truth, a imagining that godliness is a means of gain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:6</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>But b godliness c with contentment is great gain,</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:7</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>for d we brought nothing into the world, an d we cannot take anything out of the world.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:8</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>But e if we have food and clothing, with these we will be content.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:9</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>But f those who desire to be rich fall into temptation, g into a snare, into many senseless and harmful desires that h plunge people into ruin and destruction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:10</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>For the love of money is a root of i all kinds of evils. It is through this craving that some have wandered away from the faith and pierced themselves with many pangs. Fight the Good Fight of Faith</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:11</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>But as for you, j O man of God, k flee these things. l Pursue righteousness, godliness, faith, love, steadfastness, gentleness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:12</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>m Fight the good fight of the faith. n Take hold of the eternal life o to which you were called and about which you made p the good confession in the presence of many witnesses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:13</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>q I charge you in the presence of God, who gives life to all things, and of Christ Jesus, r who in his testimony befor e Pontius Pilate made p the good confession,</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:14</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>to keep the commandment unstained and free from reproach until s the appearing of our Lord Jesus Christ,</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:15</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>which he will display t at the proper tim e he who is u the blessed and only Sovereign, v the King of kings and Lord of lords,</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:16</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>w who alone has immortality, x who dwells in y unapproachable light, z whom no one has ever seen or can see. To him be honor and eternal dominion. Amen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:17</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>As for the rich in a this pres?ent age, charge them b not to be haughty, nor c to set their hopes on d the uncertainty of riches, but on God, e who richly provides us with everything to enjoy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:18</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>They are to do good, f to be rich in good works, to be generous and g ready to share,</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:19</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>thus h storing up treasure for themselves as a good foundation for the future, so that they may i take hold of j that which is truly life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>1 Timothy 6:20</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>O Timothy, guard the deposit entrusted to you. k Avoid the l irreverent babble and contradictions of what is falsely called knowledge,</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
           <t>1 Timothy 6:21</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>for by professing it some have swerved from the faith. Grace be with you.</t>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>for by professing it some have swerved from the faith. m Grace be with you.</t>
         </is>
       </c>
     </row>
